--- a/data/vgp_database/Ramsay_Island_lavas.xlsx
+++ b/data/vgp_database/Ramsay_Island_lavas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE2656A-A722-554D-AAE3-410853F932BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2039A09C-2BB9-9E46-8A3D-5A96100CF78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7160" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="85">
   <si>
     <t>Name:</t>
   </si>
@@ -291,114 +291,6 @@
   </si>
   <si>
     <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00778</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00779</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00780</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00781</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00782</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00783</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00784</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00785</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00786</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00787</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00788</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00789</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00790</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00791</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00792</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00793</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00794</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00795</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00796</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00797</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00798</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00799</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00800</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00801</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00802</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00803</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00804</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00805</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00806</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00807</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00808</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00809</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00810</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00811</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00812</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(00)00143-8:10.1029/93JB00813</t>
   </si>
 </sst>
 </file>
@@ -790,7 +682,7 @@
   <dimension ref="A1:AQ965"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y2" workbookViewId="0">
-      <selection activeCell="AH18" sqref="AH18"/>
+      <selection activeCell="AP10" sqref="AP10:AP45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1575,8 +1467,9 @@
       <c r="AO10" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP10" s="22" t="s">
-        <v>85</v>
+      <c r="AP10" s="22" t="str">
+        <f>AP9</f>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ10" s="9"/>
     </row>
@@ -1684,8 +1577,9 @@
       <c r="AO11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP11" s="22" t="s">
-        <v>86</v>
+      <c r="AP11" s="22" t="str">
+        <f t="shared" ref="AP11:AP45" si="0">AP10</f>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ11" s="9"/>
     </row>
@@ -1793,8 +1687,9 @@
       <c r="AO12" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP12" s="22" t="s">
-        <v>87</v>
+      <c r="AP12" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ12" s="9"/>
     </row>
@@ -1902,8 +1797,9 @@
       <c r="AO13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP13" s="22" t="s">
-        <v>88</v>
+      <c r="AP13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ13" s="9"/>
     </row>
@@ -2011,8 +1907,9 @@
       <c r="AO14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP14" s="22" t="s">
-        <v>89</v>
+      <c r="AP14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ14" s="9"/>
     </row>
@@ -2120,8 +2017,9 @@
       <c r="AO15" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP15" s="22" t="s">
-        <v>90</v>
+      <c r="AP15" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ15" s="9"/>
     </row>
@@ -2229,8 +2127,9 @@
       <c r="AO16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP16" s="22" t="s">
-        <v>91</v>
+      <c r="AP16" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ16" s="9"/>
     </row>
@@ -2338,8 +2237,9 @@
       <c r="AO17" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP17" s="22" t="s">
-        <v>92</v>
+      <c r="AP17" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ17" s="9"/>
     </row>
@@ -2447,8 +2347,9 @@
       <c r="AO18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP18" s="22" t="s">
-        <v>93</v>
+      <c r="AP18" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ18" s="9"/>
     </row>
@@ -2556,8 +2457,9 @@
       <c r="AO19" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP19" s="22" t="s">
-        <v>94</v>
+      <c r="AP19" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ19" s="9"/>
     </row>
@@ -2665,8 +2567,9 @@
       <c r="AO20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP20" s="22" t="s">
-        <v>95</v>
+      <c r="AP20" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ20" s="9"/>
     </row>
@@ -2774,8 +2677,9 @@
       <c r="AO21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP21" s="22" t="s">
-        <v>96</v>
+      <c r="AP21" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ21" s="9"/>
     </row>
@@ -2883,8 +2787,9 @@
       <c r="AO22" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP22" s="22" t="s">
-        <v>97</v>
+      <c r="AP22" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ22" s="9"/>
     </row>
@@ -2992,8 +2897,9 @@
       <c r="AO23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP23" s="22" t="s">
-        <v>98</v>
+      <c r="AP23" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ23" s="9"/>
     </row>
@@ -3101,8 +3007,9 @@
       <c r="AO24" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP24" s="22" t="s">
-        <v>99</v>
+      <c r="AP24" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ24" s="9"/>
     </row>
@@ -3210,8 +3117,9 @@
       <c r="AO25" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP25" s="22" t="s">
-        <v>100</v>
+      <c r="AP25" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ25" s="9"/>
     </row>
@@ -3319,8 +3227,9 @@
       <c r="AO26" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP26" s="22" t="s">
-        <v>101</v>
+      <c r="AP26" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ26" s="9"/>
     </row>
@@ -3428,8 +3337,9 @@
       <c r="AO27" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP27" s="22" t="s">
-        <v>102</v>
+      <c r="AP27" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ27" s="9"/>
     </row>
@@ -3537,8 +3447,9 @@
       <c r="AO28" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP28" s="22" t="s">
-        <v>103</v>
+      <c r="AP28" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ28" s="9"/>
     </row>
@@ -3646,8 +3557,9 @@
       <c r="AO29" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP29" s="22" t="s">
-        <v>104</v>
+      <c r="AP29" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ29" s="9"/>
     </row>
@@ -3755,8 +3667,9 @@
       <c r="AO30" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP30" s="22" t="s">
-        <v>105</v>
+      <c r="AP30" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ30" s="9"/>
     </row>
@@ -3864,8 +3777,9 @@
       <c r="AO31" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP31" s="22" t="s">
-        <v>106</v>
+      <c r="AP31" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ31" s="9"/>
     </row>
@@ -3973,8 +3887,9 @@
       <c r="AO32" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP32" s="22" t="s">
-        <v>107</v>
+      <c r="AP32" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ32" s="9"/>
     </row>
@@ -4082,8 +3997,9 @@
       <c r="AO33" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP33" s="22" t="s">
-        <v>108</v>
+      <c r="AP33" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ33" s="9"/>
     </row>
@@ -4191,8 +4107,9 @@
       <c r="AO34" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP34" s="22" t="s">
-        <v>109</v>
+      <c r="AP34" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ34" s="9"/>
     </row>
@@ -4300,8 +4217,9 @@
       <c r="AO35" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP35" s="22" t="s">
-        <v>110</v>
+      <c r="AP35" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ35" s="9"/>
     </row>
@@ -4409,8 +4327,9 @@
       <c r="AO36" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP36" s="22" t="s">
-        <v>111</v>
+      <c r="AP36" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ36" s="9"/>
     </row>
@@ -4518,8 +4437,9 @@
       <c r="AO37" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP37" s="22" t="s">
-        <v>112</v>
+      <c r="AP37" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ37" s="9"/>
     </row>
@@ -4627,8 +4547,9 @@
       <c r="AO38" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP38" s="22" t="s">
-        <v>113</v>
+      <c r="AP38" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ38" s="9"/>
     </row>
@@ -4736,8 +4657,9 @@
       <c r="AO39" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP39" s="22" t="s">
-        <v>114</v>
+      <c r="AP39" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ39" s="9"/>
     </row>
@@ -4845,8 +4767,9 @@
       <c r="AO40" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP40" s="22" t="s">
-        <v>115</v>
+      <c r="AP40" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ40" s="9"/>
     </row>
@@ -4954,8 +4877,9 @@
       <c r="AO41" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP41" s="22" t="s">
-        <v>116</v>
+      <c r="AP41" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ41" s="9"/>
     </row>
@@ -5063,8 +4987,9 @@
       <c r="AO42" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP42" s="22" t="s">
-        <v>117</v>
+      <c r="AP42" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ42" s="9"/>
     </row>
@@ -5172,8 +5097,9 @@
       <c r="AO43" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP43" s="22" t="s">
-        <v>118</v>
+      <c r="AP43" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ43" s="9"/>
     </row>
@@ -5281,8 +5207,9 @@
       <c r="AO44" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP44" s="22" t="s">
-        <v>119</v>
+      <c r="AP44" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ44" s="9"/>
     </row>
@@ -5390,8 +5317,9 @@
       <c r="AO45" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AP45" s="22" t="s">
-        <v>120</v>
+      <c r="AP45" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(00)00143-8:10.1029/93JB00777</v>
       </c>
       <c r="AQ45" s="9"/>
     </row>
@@ -6302,7 +6230,6 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="AP9" r:id="rId1" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/S0040-1951(00)00143-8" xr:uid="{CEA67E70-F2BA-C847-933E-F30A70FA4326}"/>
-    <hyperlink ref="AP10:AP45" r:id="rId2" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/S0040-1951(00)00143-8" xr:uid="{4FB21BC3-774D-8540-AD82-BBE58C5721E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
